--- a/src/form_templates/template_69.xlsx
+++ b/src/form_templates/template_69.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\excel test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\src\form_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2CC8715-BF0B-440E-BD33-0C908DC933C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074ECA6-3782-4B0C-994B-E4822C7046AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">PC!$A$1:$J$30</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -68,15 +57,6 @@
 PAR  No.</t>
   </si>
   <si>
-    <t>Property Number:_____________________</t>
-  </si>
-  <si>
-    <t>Property, Plant and Equipment :</t>
-  </si>
-  <si>
-    <t>Description :</t>
-  </si>
-  <si>
     <t>Issue/Transfer/ Disposal</t>
   </si>
   <si>
@@ -97,12 +77,25 @@
       <t>SAN ROQUE NATIONAL HIGH SCHOOL</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Property, Plant and Equipment : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property Number : </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$PHP]\ #,##0.00"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -165,6 +158,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -600,28 +598,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -631,41 +625,71 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,9 +707,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -716,25 +743,43 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,14 +1258,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="79" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1237,399 +1282,390 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58">
+      <c r="A1" s="59">
         <v>169</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="59"/>
+      <c r="B3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="59"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="59"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="59"/>
+      <c r="B10" s="52" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="58"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="14" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" s="9" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
+      <c r="B11" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>10</v>
-      </c>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>13</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="40"/>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="55" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="31" t="s">
+    <row r="12" spans="1:10" s="9" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="59"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="42"/>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="4"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="43"/>
       <c r="G13" s="44"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="5"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="36"/>
       <c r="G24" s="37"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="5"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="36"/>
       <c r="G25" s="37"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="5"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="36"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="5"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="36"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="5"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="36"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="5"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="36"/>
       <c r="G29" s="37"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="58"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F23:G23"/>
     <mergeCell ref="A1:A30"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -1642,11 +1678,12 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="F12:G12"/>
@@ -1655,6 +1692,9 @@
     <mergeCell ref="B8:H9"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/form_templates/template_69.xlsx
+++ b/src/form_templates/template_69.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\src\form_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074ECA6-3782-4B0C-994B-E4822C7046AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1DE551-0E5A-47C1-A78E-D4803DC0B9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -93,9 +93,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="[$PHP]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$₱-3409]#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -120,11 +120,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -612,173 +607,173 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1265,7 +1260,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="79" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I13" sqref="I13:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1277,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59">
+      <c r="A1" s="24">
         <v>169</v>
       </c>
       <c r="J1" s="19" t="s">
@@ -1290,25 +1285,25 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
+      <c r="A2" s="24"/>
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -1320,7 +1315,7 @@
       <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1330,7 +1325,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1345,318 +1340,318 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="59"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="9" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="63"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="22"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="25"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="25"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="25"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="25"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="25"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="25"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="28"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="28"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="28"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="28"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="28"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="28"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="28"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="31"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="53"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
@@ -1666,18 +1661,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A30"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="F27:G27"/>
@@ -1694,6 +1677,18 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A1:A30"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="F22:G22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
